--- a/data/pca/factorExposure/factorExposure_2011-10-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.0139129529388591</v>
+        <v>0.01455794440610093</v>
       </c>
       <c r="C2">
-        <v>0.031165874466408</v>
+        <v>0.001737378392044134</v>
       </c>
       <c r="D2">
-        <v>-0.01996296448759071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03242864404736612</v>
+      </c>
+      <c r="E2">
+        <v>-0.0002253436744030291</v>
+      </c>
+      <c r="F2">
+        <v>-0.03975990301304868</v>
+      </c>
+      <c r="G2">
+        <v>0.01448926539184092</v>
+      </c>
+      <c r="H2">
+        <v>-0.01539019568534447</v>
+      </c>
+      <c r="I2">
+        <v>-0.01425148736883588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0782596212272037</v>
+        <v>0.09142529623619108</v>
       </c>
       <c r="C4">
-        <v>0.04843935026417572</v>
+        <v>-0.04290374804672611</v>
       </c>
       <c r="D4">
-        <v>-0.09039342986085336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07306199610915903</v>
+      </c>
+      <c r="E4">
+        <v>0.03024677443093725</v>
+      </c>
+      <c r="F4">
+        <v>-0.05053643852831062</v>
+      </c>
+      <c r="G4">
+        <v>-0.02524235628616793</v>
+      </c>
+      <c r="H4">
+        <v>0.02910494726795264</v>
+      </c>
+      <c r="I4">
+        <v>0.06606032528484287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.1156054010239829</v>
+        <v>0.1258248197828922</v>
       </c>
       <c r="C6">
-        <v>0.04637019591726955</v>
+        <v>0.005196863017543402</v>
       </c>
       <c r="D6">
-        <v>-0.01327196523690746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.03555915399325286</v>
+      </c>
+      <c r="E6">
+        <v>-0.02138533514557744</v>
+      </c>
+      <c r="F6">
+        <v>-0.04408176905098075</v>
+      </c>
+      <c r="G6">
+        <v>-0.05389920618138826</v>
+      </c>
+      <c r="H6">
+        <v>-0.1858677960765545</v>
+      </c>
+      <c r="I6">
+        <v>0.03770268555460875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.06285451974613297</v>
+        <v>0.06677579423389118</v>
       </c>
       <c r="C7">
-        <v>0.03879608514308489</v>
+        <v>-0.03749259593890854</v>
       </c>
       <c r="D7">
-        <v>-0.04039774963727008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05275680225037803</v>
+      </c>
+      <c r="E7">
+        <v>0.01646866597095776</v>
+      </c>
+      <c r="F7">
+        <v>-0.0581248463949265</v>
+      </c>
+      <c r="G7">
+        <v>0.02097235888881738</v>
+      </c>
+      <c r="H7">
+        <v>0.01260384119635844</v>
+      </c>
+      <c r="I7">
+        <v>0.04207635643074475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.0398751432341016</v>
+        <v>0.04341423160758158</v>
       </c>
       <c r="C8">
-        <v>-0.009788682188785315</v>
+        <v>-0.02847511221209705</v>
       </c>
       <c r="D8">
-        <v>-0.06666800367235512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.008715830841234335</v>
+      </c>
+      <c r="E8">
+        <v>0.03638801196935279</v>
+      </c>
+      <c r="F8">
+        <v>-0.07043122279238184</v>
+      </c>
+      <c r="G8">
+        <v>-0.04908044017419943</v>
+      </c>
+      <c r="H8">
+        <v>-0.01489575371952086</v>
+      </c>
+      <c r="I8">
+        <v>0.1137746185758189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.07430946036328577</v>
+        <v>0.08341555334848731</v>
       </c>
       <c r="C9">
-        <v>0.03465130695993449</v>
+        <v>-0.04188963616716063</v>
       </c>
       <c r="D9">
-        <v>-0.08002387640350628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.05807313856512059</v>
+      </c>
+      <c r="E9">
+        <v>0.03040412196889724</v>
+      </c>
+      <c r="F9">
+        <v>-0.04687204063633803</v>
+      </c>
+      <c r="G9">
+        <v>-0.04062027800199122</v>
+      </c>
+      <c r="H9">
+        <v>0.03068848450011009</v>
+      </c>
+      <c r="I9">
+        <v>0.07195023912890448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02443241693503488</v>
+        <v>0.05668449592441732</v>
       </c>
       <c r="C10">
-        <v>0.03031141506375764</v>
+        <v>0.1856612346929959</v>
       </c>
       <c r="D10">
-        <v>0.1677864847278231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.04675673630210123</v>
+      </c>
+      <c r="E10">
+        <v>0.005395759729084091</v>
+      </c>
+      <c r="F10">
+        <v>-0.05706758344576117</v>
+      </c>
+      <c r="G10">
+        <v>0.04281616051410127</v>
+      </c>
+      <c r="H10">
+        <v>-0.04073907681401925</v>
+      </c>
+      <c r="I10">
+        <v>-0.04619256095080477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.07014611846375221</v>
+        <v>0.07315239348334646</v>
       </c>
       <c r="C11">
-        <v>0.03182207767321061</v>
+        <v>-0.04257185716782391</v>
       </c>
       <c r="D11">
-        <v>-0.05982556377419462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04768160994009973</v>
+      </c>
+      <c r="E11">
+        <v>0.009137038200255024</v>
+      </c>
+      <c r="F11">
+        <v>-0.04192404235552486</v>
+      </c>
+      <c r="G11">
+        <v>-0.0478939473534428</v>
+      </c>
+      <c r="H11">
+        <v>0.05707778399031004</v>
+      </c>
+      <c r="I11">
+        <v>0.06371807487345485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.06578305692138353</v>
+        <v>0.07049105124174782</v>
       </c>
       <c r="C12">
-        <v>0.04276313201530258</v>
+        <v>-0.02842470964892011</v>
       </c>
       <c r="D12">
-        <v>-0.04930547405668099</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04935341191490514</v>
+      </c>
+      <c r="E12">
+        <v>0.01805323452103548</v>
+      </c>
+      <c r="F12">
+        <v>-0.03210609860188929</v>
+      </c>
+      <c r="G12">
+        <v>-0.02006891657248228</v>
+      </c>
+      <c r="H12">
+        <v>0.02478654774019351</v>
+      </c>
+      <c r="I12">
+        <v>0.08542826351044597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06764294222424973</v>
+        <v>0.0665796079747344</v>
       </c>
       <c r="C13">
-        <v>0.04310805484969478</v>
+        <v>-0.02441887932602396</v>
       </c>
       <c r="D13">
-        <v>-0.06067506620724411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04938183114393425</v>
+      </c>
+      <c r="E13">
+        <v>0.05137260194220289</v>
+      </c>
+      <c r="F13">
+        <v>-0.02706809111207881</v>
+      </c>
+      <c r="G13">
+        <v>-0.00599030821556058</v>
+      </c>
+      <c r="H13">
+        <v>0.03227246722796048</v>
+      </c>
+      <c r="I13">
+        <v>0.08817987494167424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03080172837522942</v>
+        <v>0.04139795836978574</v>
       </c>
       <c r="C14">
-        <v>0.03237817731625146</v>
+        <v>0.003719103209184505</v>
       </c>
       <c r="D14">
-        <v>-0.002267587876410686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0350668657893299</v>
+      </c>
+      <c r="E14">
+        <v>0.02091577540804182</v>
+      </c>
+      <c r="F14">
+        <v>-0.0250003703366516</v>
+      </c>
+      <c r="G14">
+        <v>-0.02317789892429594</v>
+      </c>
+      <c r="H14">
+        <v>0.06524311558640784</v>
+      </c>
+      <c r="I14">
+        <v>0.0584497229775222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.0450281042762395</v>
+        <v>0.04064869038492521</v>
       </c>
       <c r="C15">
-        <v>0.006160446732579614</v>
+        <v>-0.01412041030689792</v>
       </c>
       <c r="D15">
-        <v>-0.02592409503188956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007620453042048111</v>
+      </c>
+      <c r="E15">
+        <v>0.03937018526464461</v>
+      </c>
+      <c r="F15">
+        <v>-0.00342017898826126</v>
+      </c>
+      <c r="G15">
+        <v>-0.02036031519261752</v>
+      </c>
+      <c r="H15">
+        <v>0.01958773292135328</v>
+      </c>
+      <c r="I15">
+        <v>0.03536972701498729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.05949432989147787</v>
+        <v>0.07084672119874744</v>
       </c>
       <c r="C16">
-        <v>0.03445290859862862</v>
+        <v>-0.04032968321792859</v>
       </c>
       <c r="D16">
-        <v>-0.06329101295897699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05495446098291026</v>
+      </c>
+      <c r="E16">
+        <v>0.01823058816478323</v>
+      </c>
+      <c r="F16">
+        <v>-0.03600090865319324</v>
+      </c>
+      <c r="G16">
+        <v>-0.02293979340691756</v>
+      </c>
+      <c r="H16">
+        <v>0.03451436227818325</v>
+      </c>
+      <c r="I16">
+        <v>0.04246987122505701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.06365240657843853</v>
+        <v>0.06249117198469326</v>
       </c>
       <c r="C20">
-        <v>0.01693011396221961</v>
+        <v>-0.0337775583148795</v>
       </c>
       <c r="D20">
-        <v>-0.05519210730154885</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02796126684913443</v>
+      </c>
+      <c r="E20">
+        <v>0.004126880296007706</v>
+      </c>
+      <c r="F20">
+        <v>-0.03178711306280259</v>
+      </c>
+      <c r="G20">
+        <v>-0.01659018364996682</v>
+      </c>
+      <c r="H20">
+        <v>0.04414503551664318</v>
+      </c>
+      <c r="I20">
+        <v>0.09509984199673602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.0339193857457442</v>
+        <v>0.02757878593970169</v>
       </c>
       <c r="C21">
-        <v>0.004854341454453465</v>
+        <v>-0.0195160040419414</v>
       </c>
       <c r="D21">
-        <v>-0.009136667669344133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.006524567829427488</v>
+      </c>
+      <c r="E21">
+        <v>0.03803148129056066</v>
+      </c>
+      <c r="F21">
+        <v>-0.0005756399993264341</v>
+      </c>
+      <c r="G21">
+        <v>-0.005663840198596643</v>
+      </c>
+      <c r="H21">
+        <v>-0.0532985827852625</v>
+      </c>
+      <c r="I21">
+        <v>0.03830725044183447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.1083670386756882</v>
+        <v>0.09052248095750699</v>
       </c>
       <c r="C22">
-        <v>0.01868482555626097</v>
+        <v>-0.05192525090185601</v>
       </c>
       <c r="D22">
-        <v>-0.08946432252849504</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01497095882866442</v>
+      </c>
+      <c r="E22">
+        <v>0.555753759087582</v>
+      </c>
+      <c r="F22">
+        <v>-0.04766902669717014</v>
+      </c>
+      <c r="G22">
+        <v>0.2591145752386284</v>
+      </c>
+      <c r="H22">
+        <v>-0.1528542266588444</v>
+      </c>
+      <c r="I22">
+        <v>-0.232277531655474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.1090650412559995</v>
+        <v>0.09135992689089439</v>
       </c>
       <c r="C23">
-        <v>0.01960099701874293</v>
+        <v>-0.05206365014659086</v>
       </c>
       <c r="D23">
-        <v>-0.0895940043673189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.01611277001427152</v>
+      </c>
+      <c r="E23">
+        <v>0.5591242511167541</v>
+      </c>
+      <c r="F23">
+        <v>-0.04948086113369362</v>
+      </c>
+      <c r="G23">
+        <v>0.2534846599883523</v>
+      </c>
+      <c r="H23">
+        <v>-0.1524291994398786</v>
+      </c>
+      <c r="I23">
+        <v>-0.2345230918731778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.07738766553986311</v>
+        <v>0.08101742375221277</v>
       </c>
       <c r="C24">
-        <v>0.03980952065485239</v>
+        <v>-0.03763045820030257</v>
       </c>
       <c r="D24">
-        <v>-0.06430963314569647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0529975561453757</v>
+      </c>
+      <c r="E24">
+        <v>0.02254107711299456</v>
+      </c>
+      <c r="F24">
+        <v>-0.04442047448660482</v>
+      </c>
+      <c r="G24">
+        <v>-0.03987384414398203</v>
+      </c>
+      <c r="H24">
+        <v>0.0253546802759406</v>
+      </c>
+      <c r="I24">
+        <v>0.0632738693866966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.07516207198679536</v>
+        <v>0.0782367405237261</v>
       </c>
       <c r="C25">
-        <v>0.04622563878549688</v>
+        <v>-0.02920723383611768</v>
       </c>
       <c r="D25">
-        <v>-0.06260271005382466</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05561932634994235</v>
+      </c>
+      <c r="E25">
+        <v>0.03118640096170303</v>
+      </c>
+      <c r="F25">
+        <v>-0.04065247557013061</v>
+      </c>
+      <c r="G25">
+        <v>-0.04048929782595514</v>
+      </c>
+      <c r="H25">
+        <v>0.03235316777404129</v>
+      </c>
+      <c r="I25">
+        <v>0.07303868164099468</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.04756399557807443</v>
+        <v>0.04756117686049022</v>
       </c>
       <c r="C26">
-        <v>0.005965797071093429</v>
+        <v>-0.01598937034598386</v>
       </c>
       <c r="D26">
-        <v>-0.01205999167810127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.006230734782902852</v>
+      </c>
+      <c r="E26">
+        <v>0.03979607523946502</v>
+      </c>
+      <c r="F26">
+        <v>-0.03286904808684151</v>
+      </c>
+      <c r="G26">
+        <v>-0.02104173131124869</v>
+      </c>
+      <c r="H26">
+        <v>0.03689358963562359</v>
+      </c>
+      <c r="I26">
+        <v>0.009044395648550405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.05265010268773585</v>
+        <v>0.08250959459405284</v>
       </c>
       <c r="C28">
-        <v>0.09126556223070108</v>
+        <v>0.3085290548947427</v>
       </c>
       <c r="D28">
-        <v>0.3058024683116006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.06650044965576926</v>
+      </c>
+      <c r="E28">
+        <v>0.01244596421597772</v>
+      </c>
+      <c r="F28">
+        <v>-0.04512478207647112</v>
+      </c>
+      <c r="G28">
+        <v>-0.02874572730681123</v>
+      </c>
+      <c r="H28">
+        <v>-0.07639828103402431</v>
+      </c>
+      <c r="I28">
+        <v>-0.02232877487294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.04997919396010395</v>
+        <v>0.05252952022415301</v>
       </c>
       <c r="C29">
-        <v>0.04105551175080298</v>
+        <v>0.002687862620931019</v>
       </c>
       <c r="D29">
-        <v>-0.005566911034205427</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03644922856525927</v>
+      </c>
+      <c r="E29">
+        <v>0.03998172179829889</v>
+      </c>
+      <c r="F29">
+        <v>-0.03665015909260818</v>
+      </c>
+      <c r="G29">
+        <v>-0.006614989008052527</v>
+      </c>
+      <c r="H29">
+        <v>0.08921031440667844</v>
+      </c>
+      <c r="I29">
+        <v>0.04997022233940509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1399918635285892</v>
+        <v>0.1301579959772248</v>
       </c>
       <c r="C30">
-        <v>0.07086828227582551</v>
+        <v>-0.03856844287027639</v>
       </c>
       <c r="D30">
-        <v>-0.1009850207915244</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07875215206206791</v>
+      </c>
+      <c r="E30">
+        <v>0.06721135179989345</v>
+      </c>
+      <c r="F30">
+        <v>-0.06399914519873615</v>
+      </c>
+      <c r="G30">
+        <v>-0.05271515708958088</v>
+      </c>
+      <c r="H30">
+        <v>-0.04546780689962775</v>
+      </c>
+      <c r="I30">
+        <v>0.303890963143655</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.05025694214000227</v>
+        <v>0.04744370116132903</v>
       </c>
       <c r="C31">
-        <v>0.0215718168937037</v>
+        <v>-0.02731188070296285</v>
       </c>
       <c r="D31">
-        <v>-0.02345502339305013</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02774468564024239</v>
+      </c>
+      <c r="E31">
+        <v>0.02500173777028886</v>
+      </c>
+      <c r="F31">
+        <v>-0.0134791028903581</v>
+      </c>
+      <c r="G31">
+        <v>0.007405020962252291</v>
+      </c>
+      <c r="H31">
+        <v>0.065051612730535</v>
+      </c>
+      <c r="I31">
+        <v>0.02633034941334827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.03609472633874293</v>
+        <v>0.04279997352381437</v>
       </c>
       <c r="C32">
-        <v>0.00772426098754695</v>
+        <v>0.00173220999618324</v>
       </c>
       <c r="D32">
-        <v>-0.03139193545121639</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01120687916308392</v>
+      </c>
+      <c r="E32">
+        <v>0.07668396771562047</v>
+      </c>
+      <c r="F32">
+        <v>0.001017053188293158</v>
+      </c>
+      <c r="G32">
+        <v>-0.01862498117279077</v>
+      </c>
+      <c r="H32">
+        <v>-0.02080026335283665</v>
+      </c>
+      <c r="I32">
+        <v>-0.01348792159680399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.09067697729386778</v>
+        <v>0.09424640116527389</v>
       </c>
       <c r="C33">
-        <v>0.03688142143154788</v>
+        <v>-0.03716345250741099</v>
       </c>
       <c r="D33">
-        <v>-0.05260231938432427</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04521880530933427</v>
+      </c>
+      <c r="E33">
+        <v>0.0283496050646876</v>
+      </c>
+      <c r="F33">
+        <v>-0.004720507975654502</v>
+      </c>
+      <c r="G33">
+        <v>0.00461068622801763</v>
+      </c>
+      <c r="H33">
+        <v>0.05818245454273574</v>
+      </c>
+      <c r="I33">
+        <v>0.07628972845758332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.06015605951853874</v>
+        <v>0.0679936201398991</v>
       </c>
       <c r="C34">
-        <v>0.01779684134383611</v>
+        <v>-0.03561672795884916</v>
       </c>
       <c r="D34">
-        <v>-0.05707667248586785</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03393736000337191</v>
+      </c>
+      <c r="E34">
+        <v>0.02128424900430344</v>
+      </c>
+      <c r="F34">
+        <v>-0.02745870963567505</v>
+      </c>
+      <c r="G34">
+        <v>-0.02471973136349064</v>
+      </c>
+      <c r="H34">
+        <v>0.04626159462002992</v>
+      </c>
+      <c r="I34">
+        <v>0.04981188444232993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.03767036091267393</v>
+        <v>0.0370612215292344</v>
       </c>
       <c r="C35">
-        <v>0.01278605951148056</v>
+        <v>-0.01303129466314106</v>
       </c>
       <c r="D35">
-        <v>-0.01919289648228996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01687727078292627</v>
+      </c>
+      <c r="E35">
+        <v>0.01660034296660903</v>
+      </c>
+      <c r="F35">
+        <v>0.01006831319910215</v>
+      </c>
+      <c r="G35">
+        <v>0.0004906488590421515</v>
+      </c>
+      <c r="H35">
+        <v>0.03451439987208256</v>
+      </c>
+      <c r="I35">
+        <v>0.04913826522077158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.03120435757502737</v>
+        <v>0.03162454082397816</v>
       </c>
       <c r="C36">
-        <v>0.01240891129342985</v>
+        <v>-0.01044108337664675</v>
       </c>
       <c r="D36">
-        <v>-0.02095106538017737</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01482478965102536</v>
+      </c>
+      <c r="E36">
+        <v>0.0353538658747122</v>
+      </c>
+      <c r="F36">
+        <v>-0.03746900195533349</v>
+      </c>
+      <c r="G36">
+        <v>-0.01420929785745224</v>
+      </c>
+      <c r="H36">
+        <v>0.03650633081387657</v>
+      </c>
+      <c r="I36">
+        <v>0.06207711301977078</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.06709003134302131</v>
+        <v>0.05565102218699563</v>
       </c>
       <c r="C38">
-        <v>-0.0007654455667024996</v>
+        <v>-0.02896575041805686</v>
       </c>
       <c r="D38">
-        <v>0.001695547101755101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.003655585739648836</v>
+      </c>
+      <c r="E38">
+        <v>0.04661638032869621</v>
+      </c>
+      <c r="F38">
+        <v>-0.003055804455330987</v>
+      </c>
+      <c r="G38">
+        <v>0.01514473279420397</v>
+      </c>
+      <c r="H38">
+        <v>0.02815008598934269</v>
+      </c>
+      <c r="I38">
+        <v>0.03896286230073005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.09831125643698242</v>
+        <v>0.1025179806921501</v>
       </c>
       <c r="C39">
-        <v>0.05849305799803331</v>
+        <v>-0.02701340116671879</v>
       </c>
       <c r="D39">
-        <v>-0.04570523196837498</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0643797501480719</v>
+      </c>
+      <c r="E39">
+        <v>0.01531031867035114</v>
+      </c>
+      <c r="F39">
+        <v>-0.02291647733213716</v>
+      </c>
+      <c r="G39">
+        <v>-0.04104677694640504</v>
+      </c>
+      <c r="H39">
+        <v>0.01273419404244565</v>
+      </c>
+      <c r="I39">
+        <v>0.05010782588338356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07915564995298485</v>
+        <v>0.05557682622712563</v>
       </c>
       <c r="C40">
-        <v>0.0167389000003024</v>
+        <v>-0.03838823691213496</v>
       </c>
       <c r="D40">
-        <v>-0.02705917046795708</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.007903502383663786</v>
+      </c>
+      <c r="E40">
+        <v>0.06143670337860773</v>
+      </c>
+      <c r="F40">
+        <v>0.01380217078582524</v>
+      </c>
+      <c r="G40">
+        <v>-0.03369443055886875</v>
+      </c>
+      <c r="H40">
+        <v>-0.04697303473225627</v>
+      </c>
+      <c r="I40">
+        <v>0.246619458060846</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.05028362497072453</v>
+        <v>0.04769137325668157</v>
       </c>
       <c r="C41">
-        <v>0.006683249196625875</v>
+        <v>-0.03128659583692664</v>
       </c>
       <c r="D41">
-        <v>-0.03430502429175202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0151791204318229</v>
+      </c>
+      <c r="E41">
+        <v>-0.001959063285161706</v>
+      </c>
+      <c r="F41">
+        <v>0.008970386791728695</v>
+      </c>
+      <c r="G41">
+        <v>-0.01161989589913866</v>
+      </c>
+      <c r="H41">
+        <v>0.03813440219569839</v>
+      </c>
+      <c r="I41">
+        <v>0.0340942426021754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.05815627133038029</v>
+        <v>0.06195209889428253</v>
       </c>
       <c r="C43">
-        <v>0.02729562028325848</v>
+        <v>-0.02037990416283712</v>
       </c>
       <c r="D43">
-        <v>-0.0121015529451245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03089096584644134</v>
+      </c>
+      <c r="E43">
+        <v>0.01793150856741409</v>
+      </c>
+      <c r="F43">
+        <v>-0.02190645602359996</v>
+      </c>
+      <c r="G43">
+        <v>0.01110971731073195</v>
+      </c>
+      <c r="H43">
+        <v>0.05635765723047358</v>
+      </c>
+      <c r="I43">
+        <v>0.00322410191621539</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.09739785968638266</v>
+        <v>0.09443328227064976</v>
       </c>
       <c r="C44">
-        <v>0.00999544330934227</v>
+        <v>-0.04524968060308036</v>
       </c>
       <c r="D44">
-        <v>-0.05078064256525266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.02185501095247972</v>
+      </c>
+      <c r="E44">
+        <v>0.07521716098109339</v>
+      </c>
+      <c r="F44">
+        <v>-0.1008170950960397</v>
+      </c>
+      <c r="G44">
+        <v>-0.05821962240449223</v>
+      </c>
+      <c r="H44">
+        <v>0.05178607242661724</v>
+      </c>
+      <c r="I44">
+        <v>0.1082149479443454</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.0273814393792848</v>
+        <v>0.03923186756236443</v>
       </c>
       <c r="C46">
-        <v>0.01899850828892186</v>
+        <v>-0.02287718192319235</v>
       </c>
       <c r="D46">
-        <v>-0.03507158615849596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03650165457552699</v>
+      </c>
+      <c r="E46">
+        <v>0.03136138972517471</v>
+      </c>
+      <c r="F46">
+        <v>-0.02695530826314029</v>
+      </c>
+      <c r="G46">
+        <v>0.005999485697507221</v>
+      </c>
+      <c r="H46">
+        <v>0.03006836915240388</v>
+      </c>
+      <c r="I46">
+        <v>0.01954525150744213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.03710750472329735</v>
+        <v>0.04481503892991606</v>
       </c>
       <c r="C47">
-        <v>0.02162131725129772</v>
+        <v>-0.0002838093558877186</v>
       </c>
       <c r="D47">
-        <v>0.0006087573716667733</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02061794759705317</v>
+      </c>
+      <c r="E47">
+        <v>0.04563693244217211</v>
+      </c>
+      <c r="F47">
+        <v>-0.003972473388282813</v>
+      </c>
+      <c r="G47">
+        <v>0.03560132331805579</v>
+      </c>
+      <c r="H47">
+        <v>0.02558729827111831</v>
+      </c>
+      <c r="I47">
+        <v>0.04912598490105078</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.04310127630520099</v>
+        <v>0.04286762113393613</v>
       </c>
       <c r="C48">
-        <v>0.01908779366181538</v>
+        <v>-0.01154703176745836</v>
       </c>
       <c r="D48">
-        <v>-0.03017614475956492</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01833755808986263</v>
+      </c>
+      <c r="E48">
+        <v>0.04821910873526044</v>
+      </c>
+      <c r="F48">
+        <v>-0.01393912971460896</v>
+      </c>
+      <c r="G48">
+        <v>-0.005808122850950338</v>
+      </c>
+      <c r="H48">
+        <v>0.01338956379143605</v>
+      </c>
+      <c r="I48">
+        <v>0.04237003390977257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>-0.1655265599408663</v>
+        <v>0.1999643107307334</v>
       </c>
       <c r="C49">
-        <v>0.03841964963148815</v>
+        <v>-0.01454108728237169</v>
       </c>
       <c r="D49">
-        <v>-0.02562663077483871</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.04859654612111848</v>
+      </c>
+      <c r="E49">
+        <v>-0.2144921938422181</v>
+      </c>
+      <c r="F49">
+        <v>0.01217009963065503</v>
+      </c>
+      <c r="G49">
+        <v>0.1221242783337496</v>
+      </c>
+      <c r="H49">
+        <v>-0.2149035670981195</v>
+      </c>
+      <c r="I49">
+        <v>-0.05597006345473892</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04998099319317175</v>
+        <v>0.05106180960864463</v>
       </c>
       <c r="C50">
-        <v>0.03134165910299624</v>
+        <v>-0.02209270013516552</v>
       </c>
       <c r="D50">
-        <v>-0.036838360390908</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03944313232993131</v>
+      </c>
+      <c r="E50">
+        <v>0.02923103682936705</v>
+      </c>
+      <c r="F50">
+        <v>-0.01143571965412411</v>
+      </c>
+      <c r="G50">
+        <v>-0.005757330981785368</v>
+      </c>
+      <c r="H50">
+        <v>0.06661060870214559</v>
+      </c>
+      <c r="I50">
+        <v>0.02508417510671384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.02698981612864244</v>
+        <v>0.0347986138003345</v>
       </c>
       <c r="C51">
-        <v>-0.002507384274215035</v>
+        <v>0.002696282907520612</v>
       </c>
       <c r="D51">
-        <v>0.009149402709754225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.007674876915509552</v>
+      </c>
+      <c r="E51">
+        <v>-0.01053246391261873</v>
+      </c>
+      <c r="F51">
+        <v>-0.01119872326258898</v>
+      </c>
+      <c r="G51">
+        <v>0.02241991013455096</v>
+      </c>
+      <c r="H51">
+        <v>-0.0186889440233579</v>
+      </c>
+      <c r="I51">
+        <v>-0.01481559947246921</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1585381041784856</v>
+        <v>0.1606334643116412</v>
       </c>
       <c r="C53">
-        <v>0.07305689898014681</v>
+        <v>0.0009643600059281614</v>
       </c>
       <c r="D53">
-        <v>0.004499428329426054</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05603493088790207</v>
+      </c>
+      <c r="E53">
+        <v>-0.02803888989087376</v>
+      </c>
+      <c r="F53">
+        <v>0.006107693954177621</v>
+      </c>
+      <c r="G53">
+        <v>0.005114295467798184</v>
+      </c>
+      <c r="H53">
+        <v>0.2057387875994942</v>
+      </c>
+      <c r="I53">
+        <v>-0.1103236842821581</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.06189591669247257</v>
+        <v>0.06226460217311138</v>
       </c>
       <c r="C54">
-        <v>0.02224392093120898</v>
+        <v>0.0009567769061612221</v>
       </c>
       <c r="D54">
-        <v>-0.01727355438028056</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01873978010139732</v>
+      </c>
+      <c r="E54">
+        <v>0.0658949228705687</v>
+      </c>
+      <c r="F54">
+        <v>-0.03611652455702385</v>
+      </c>
+      <c r="G54">
+        <v>-0.04537719644510765</v>
+      </c>
+      <c r="H54">
+        <v>0.03809784337544272</v>
+      </c>
+      <c r="I54">
+        <v>0.1172254829285324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1021279710696989</v>
+        <v>0.1016863544222436</v>
       </c>
       <c r="C55">
-        <v>0.04524356838896312</v>
+        <v>-0.01231617957857854</v>
       </c>
       <c r="D55">
-        <v>-0.01569212870829132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04064793226084874</v>
+      </c>
+      <c r="E55">
+        <v>-0.003115550311114165</v>
+      </c>
+      <c r="F55">
+        <v>-0.01995447553453857</v>
+      </c>
+      <c r="G55">
+        <v>-0.02143803508859574</v>
+      </c>
+      <c r="H55">
+        <v>0.1587439318777941</v>
+      </c>
+      <c r="I55">
+        <v>-0.0353022495435047</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1474810239449272</v>
+        <v>0.1511964219318367</v>
       </c>
       <c r="C56">
-        <v>0.08802839603550888</v>
+        <v>-0.00957702267505209</v>
       </c>
       <c r="D56">
-        <v>-0.002130660663733152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.07476826442324315</v>
+      </c>
+      <c r="E56">
+        <v>-0.01220453923962414</v>
+      </c>
+      <c r="F56">
+        <v>-0.01291801334009465</v>
+      </c>
+      <c r="G56">
+        <v>-0.02079501670473459</v>
+      </c>
+      <c r="H56">
+        <v>0.1951050047124558</v>
+      </c>
+      <c r="I56">
+        <v>-0.1235213424354824</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.116131380940286</v>
+        <v>0.0860107310840091</v>
       </c>
       <c r="C58">
-        <v>-0.05183036236499313</v>
+        <v>-0.06642034053246496</v>
       </c>
       <c r="D58">
-        <v>-0.05965744437287934</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.05812107638531473</v>
+      </c>
+      <c r="E58">
+        <v>0.1148631001078684</v>
+      </c>
+      <c r="F58">
+        <v>-0.05175957055064045</v>
+      </c>
+      <c r="G58">
+        <v>0.1264649620342966</v>
+      </c>
+      <c r="H58">
+        <v>-0.1618117875345412</v>
+      </c>
+      <c r="I58">
+        <v>0.5455476638644342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1284847187346312</v>
+        <v>0.1549216311553966</v>
       </c>
       <c r="C59">
-        <v>0.09804622769632261</v>
+        <v>0.3516676716997374</v>
       </c>
       <c r="D59">
-        <v>0.4253414218670662</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.1022704394017218</v>
+      </c>
+      <c r="E59">
+        <v>0.0008628629342905085</v>
+      </c>
+      <c r="F59">
+        <v>-0.005513258724881523</v>
+      </c>
+      <c r="G59">
+        <v>-0.006570502417780225</v>
+      </c>
+      <c r="H59">
+        <v>0.02334609387440137</v>
+      </c>
+      <c r="I59">
+        <v>-0.04135781103284299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2131331428488308</v>
+        <v>0.2400508839943706</v>
       </c>
       <c r="C60">
-        <v>0.0813328940051142</v>
+        <v>-0.01106173147148076</v>
       </c>
       <c r="D60">
-        <v>-0.00414543429016747</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.07396627046127116</v>
+      </c>
+      <c r="E60">
+        <v>-0.1480887298927622</v>
+      </c>
+      <c r="F60">
+        <v>-0.0232243344012463</v>
+      </c>
+      <c r="G60">
+        <v>-0.002038806550899975</v>
+      </c>
+      <c r="H60">
+        <v>-0.1491918026371586</v>
+      </c>
+      <c r="I60">
+        <v>-0.1104663359205192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.07871371207623237</v>
+        <v>0.08483562453986858</v>
       </c>
       <c r="C61">
-        <v>0.04462656708983447</v>
+        <v>-0.02199435184365849</v>
       </c>
       <c r="D61">
-        <v>-0.0322536578715542</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05144651491417</v>
+      </c>
+      <c r="E61">
+        <v>0.01545103572879814</v>
+      </c>
+      <c r="F61">
+        <v>-0.02696505887443063</v>
+      </c>
+      <c r="G61">
+        <v>-0.04030373908927343</v>
+      </c>
+      <c r="H61">
+        <v>0.06840561468328522</v>
+      </c>
+      <c r="I61">
+        <v>0.03208366246343344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>-0.1382931573764244</v>
+        <v>0.1423898988767493</v>
       </c>
       <c r="C62">
-        <v>0.04833863952418881</v>
+        <v>-0.02553652697969266</v>
       </c>
       <c r="D62">
-        <v>-0.003012681581654538</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04403777682180024</v>
+      </c>
+      <c r="E62">
+        <v>-0.04229196171861355</v>
+      </c>
+      <c r="F62">
+        <v>0.03463308211749687</v>
+      </c>
+      <c r="G62">
+        <v>-0.05490651252185056</v>
+      </c>
+      <c r="H62">
+        <v>0.195087702071804</v>
+      </c>
+      <c r="I62">
+        <v>-0.1217115940466599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.05703313301706538</v>
+        <v>0.05174869865001778</v>
       </c>
       <c r="C63">
-        <v>0.01540203284067906</v>
+        <v>-0.01551205517740565</v>
       </c>
       <c r="D63">
-        <v>-0.02463632367687418</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01728243856630833</v>
+      </c>
+      <c r="E63">
+        <v>0.02730157014455858</v>
+      </c>
+      <c r="F63">
+        <v>-0.0102057284257135</v>
+      </c>
+      <c r="G63">
+        <v>-0.04626364069217213</v>
+      </c>
+      <c r="H63">
+        <v>0.03357208319121691</v>
+      </c>
+      <c r="I63">
+        <v>0.03672432884492223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.1085776889444266</v>
+        <v>0.112535609634149</v>
       </c>
       <c r="C64">
-        <v>0.0295094160401275</v>
+        <v>-0.010639459433342</v>
       </c>
       <c r="D64">
-        <v>-0.0167487824186257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02857057833802679</v>
+      </c>
+      <c r="E64">
+        <v>0.03168749001807217</v>
+      </c>
+      <c r="F64">
+        <v>-0.05754905779618968</v>
+      </c>
+      <c r="G64">
+        <v>-0.04833513281150111</v>
+      </c>
+      <c r="H64">
+        <v>0.01577559854516124</v>
+      </c>
+      <c r="I64">
+        <v>0.05065155068932167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.1287137683734434</v>
+        <v>0.1335318495124153</v>
       </c>
       <c r="C65">
-        <v>0.04633858008409265</v>
+        <v>0.008241586176470436</v>
       </c>
       <c r="D65">
-        <v>-0.02327612983400893</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03894786449645823</v>
+      </c>
+      <c r="E65">
+        <v>-0.003120351535248683</v>
+      </c>
+      <c r="F65">
+        <v>-0.02939407789830595</v>
+      </c>
+      <c r="G65">
+        <v>-0.08766588472525928</v>
+      </c>
+      <c r="H65">
+        <v>-0.2029424485816682</v>
+      </c>
+      <c r="I65">
+        <v>0.08084885632236347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.1542898863700585</v>
+        <v>0.14843987962359</v>
       </c>
       <c r="C66">
-        <v>0.07540892447808566</v>
+        <v>-0.06764641420799941</v>
       </c>
       <c r="D66">
-        <v>-0.08842000979077248</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09485236317693978</v>
+      </c>
+      <c r="E66">
+        <v>-0.006057779095639771</v>
+      </c>
+      <c r="F66">
+        <v>-0.01052927855807283</v>
+      </c>
+      <c r="G66">
+        <v>-0.08137458918950513</v>
+      </c>
+      <c r="H66">
+        <v>0.07744277994850186</v>
+      </c>
+      <c r="I66">
+        <v>0.09367544455057525</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.09383202736351783</v>
+        <v>0.09382914511736641</v>
       </c>
       <c r="C67">
-        <v>0.004078013337154305</v>
+        <v>-0.03508919706232601</v>
       </c>
       <c r="D67">
-        <v>-0.004443892942326406</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.007903543065874104</v>
+      </c>
+      <c r="E67">
+        <v>0.007306660824158115</v>
+      </c>
+      <c r="F67">
+        <v>-0.009417573347414646</v>
+      </c>
+      <c r="G67">
+        <v>0.0260284931257273</v>
+      </c>
+      <c r="H67">
+        <v>0.02175227576092419</v>
+      </c>
+      <c r="I67">
+        <v>0.003428322944597997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.0490905566943538</v>
+        <v>0.0694326317438419</v>
       </c>
       <c r="C68">
-        <v>0.0567052341703175</v>
+        <v>0.2710380210349628</v>
       </c>
       <c r="D68">
-        <v>0.2515235884161609</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.07496225048326619</v>
+      </c>
+      <c r="E68">
+        <v>0.03637895124495596</v>
+      </c>
+      <c r="F68">
+        <v>-0.02103710296164944</v>
+      </c>
+      <c r="G68">
+        <v>0.005893073999697605</v>
+      </c>
+      <c r="H68">
+        <v>0.02049464057548902</v>
+      </c>
+      <c r="I68">
+        <v>0.02085169139587675</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06202030679135558</v>
+        <v>0.05509359352459202</v>
       </c>
       <c r="C69">
-        <v>0.02004097883898081</v>
+        <v>-0.01581297356223581</v>
       </c>
       <c r="D69">
-        <v>-0.01875529963673564</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01416167824657389</v>
+      </c>
+      <c r="E69">
+        <v>0.03034325836213715</v>
+      </c>
+      <c r="F69">
+        <v>0.009471336500347472</v>
+      </c>
+      <c r="G69">
+        <v>0.0005822033865394501</v>
+      </c>
+      <c r="H69">
+        <v>0.04035451849891498</v>
+      </c>
+      <c r="I69">
+        <v>0.01587032770231721</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>-0.01048755361759177</v>
+        <v>0.03220548003456036</v>
       </c>
       <c r="C70">
-        <v>0.001895815523375184</v>
+        <v>0.003576930558935277</v>
       </c>
       <c r="D70">
-        <v>0.01603956326892321</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.002979698516120038</v>
+      </c>
+      <c r="E70">
+        <v>-0.02333600405194889</v>
+      </c>
+      <c r="F70">
+        <v>0.001933505271710953</v>
+      </c>
+      <c r="G70">
+        <v>0.007332247963912144</v>
+      </c>
+      <c r="H70">
+        <v>-0.02930174325550095</v>
+      </c>
+      <c r="I70">
+        <v>0.02420968271960769</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.04849233443022397</v>
+        <v>0.07748257790769357</v>
       </c>
       <c r="C71">
-        <v>0.05402426061189394</v>
+        <v>0.2925220265185129</v>
       </c>
       <c r="D71">
-        <v>0.2870979020005023</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.08422602503479591</v>
+      </c>
+      <c r="E71">
+        <v>0.0253103098671179</v>
+      </c>
+      <c r="F71">
+        <v>-0.04589833983744031</v>
+      </c>
+      <c r="G71">
+        <v>0.00169290985032333</v>
+      </c>
+      <c r="H71">
+        <v>0.02016778195332895</v>
+      </c>
+      <c r="I71">
+        <v>0.0148829956889158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1436612110684756</v>
+        <v>0.1400845602750794</v>
       </c>
       <c r="C72">
-        <v>0.04362205507387999</v>
+        <v>0.008704231426724978</v>
       </c>
       <c r="D72">
-        <v>0.02250042005387261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01193673038854922</v>
+      </c>
+      <c r="E72">
+        <v>-0.0105192321631532</v>
+      </c>
+      <c r="F72">
+        <v>0.1669026531104931</v>
+      </c>
+      <c r="G72">
+        <v>-0.1148482248047116</v>
+      </c>
+      <c r="H72">
+        <v>0.01586056845432178</v>
+      </c>
+      <c r="I72">
+        <v>-0.01588934646054441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2650748506346012</v>
+        <v>0.2660332877963361</v>
       </c>
       <c r="C73">
-        <v>0.06574264025845879</v>
+        <v>-0.08103255934489562</v>
       </c>
       <c r="D73">
-        <v>-0.06329921736085389</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.06673455838082371</v>
+      </c>
+      <c r="E73">
+        <v>-0.3360492903647553</v>
+      </c>
+      <c r="F73">
+        <v>-0.006438538815359404</v>
+      </c>
+      <c r="G73">
+        <v>0.2105007081415206</v>
+      </c>
+      <c r="H73">
+        <v>-0.3228525115044452</v>
+      </c>
+      <c r="I73">
+        <v>-0.04921557647299633</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.08318933616702702</v>
+        <v>0.09128654367171472</v>
       </c>
       <c r="C74">
-        <v>0.0734750629405924</v>
+        <v>-0.009839595086432061</v>
       </c>
       <c r="D74">
-        <v>-0.01232464497938233</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.07196933852317464</v>
+      </c>
+      <c r="E74">
+        <v>0.0002460113453883713</v>
+      </c>
+      <c r="F74">
+        <v>-0.001071394195759781</v>
+      </c>
+      <c r="G74">
+        <v>0.02862242683309734</v>
+      </c>
+      <c r="H74">
+        <v>0.1279354131397366</v>
+      </c>
+      <c r="I74">
+        <v>-0.02331205293370631</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1129619579425149</v>
+        <v>0.1051322902983655</v>
       </c>
       <c r="C75">
-        <v>0.04314093784058996</v>
+        <v>-0.02018011464059305</v>
       </c>
       <c r="D75">
-        <v>-0.009697047550555653</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02654763287542445</v>
+      </c>
+      <c r="E75">
+        <v>0.005206495481248271</v>
+      </c>
+      <c r="F75">
+        <v>0.005890121557818003</v>
+      </c>
+      <c r="G75">
+        <v>0.006919201602477093</v>
+      </c>
+      <c r="H75">
+        <v>0.1097826183849553</v>
+      </c>
+      <c r="I75">
+        <v>-0.05718923471700871</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1303802146123723</v>
+        <v>0.1360648472886931</v>
       </c>
       <c r="C76">
-        <v>0.06781155912377597</v>
+        <v>-0.0268496355523177</v>
       </c>
       <c r="D76">
-        <v>-0.03260484120063044</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07454715103137974</v>
+      </c>
+      <c r="E76">
+        <v>0.01259877868245909</v>
+      </c>
+      <c r="F76">
+        <v>-0.03871713253195376</v>
+      </c>
+      <c r="G76">
+        <v>-0.01982334061837975</v>
+      </c>
+      <c r="H76">
+        <v>0.2480543537548624</v>
+      </c>
+      <c r="I76">
+        <v>-0.1079321191975069</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1323731599201375</v>
+        <v>0.1034750624241611</v>
       </c>
       <c r="C77">
-        <v>-0.03044680428925309</v>
+        <v>-0.05123987230646573</v>
       </c>
       <c r="D77">
-        <v>-0.05656748799793321</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04895575028736159</v>
+      </c>
+      <c r="E77">
+        <v>0.1244596513607611</v>
+      </c>
+      <c r="F77">
+        <v>-0.0733621970900567</v>
+      </c>
+      <c r="G77">
+        <v>-0.7778737990951237</v>
+      </c>
+      <c r="H77">
+        <v>-0.30409963496395</v>
+      </c>
+      <c r="I77">
+        <v>-0.2502485000107909</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.1103295863318821</v>
+        <v>0.151665448517831</v>
       </c>
       <c r="C78">
-        <v>0.02190060109038462</v>
+        <v>-0.04875919176060024</v>
       </c>
       <c r="D78">
-        <v>-0.07794633907256886</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0600912681513169</v>
+      </c>
+      <c r="E78">
+        <v>0.09083385816781241</v>
+      </c>
+      <c r="F78">
+        <v>-0.06083788062241966</v>
+      </c>
+      <c r="G78">
+        <v>-0.009297584805746203</v>
+      </c>
+      <c r="H78">
+        <v>-0.1219057051307292</v>
+      </c>
+      <c r="I78">
+        <v>0.02751011079649387</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.1418165140053567</v>
+        <v>0.1432775549400712</v>
       </c>
       <c r="C79">
-        <v>0.04599537769565771</v>
+        <v>-0.0311679812544195</v>
       </c>
       <c r="D79">
-        <v>-0.03438624133848811</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04385420504478676</v>
+      </c>
+      <c r="E79">
+        <v>-0.01393249258563782</v>
+      </c>
+      <c r="F79">
+        <v>-0.01617810224061063</v>
+      </c>
+      <c r="G79">
+        <v>-0.03085233545703573</v>
+      </c>
+      <c r="H79">
+        <v>0.1770108956295766</v>
+      </c>
+      <c r="I79">
+        <v>-0.07904647410171591</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.03394060459059507</v>
+        <v>0.03924929879824757</v>
       </c>
       <c r="C80">
-        <v>0.01469292812472958</v>
+        <v>-0.005857992336865788</v>
       </c>
       <c r="D80">
-        <v>-0.02803857394945468</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02298516917658141</v>
+      </c>
+      <c r="E80">
+        <v>-0.05061112654258985</v>
+      </c>
+      <c r="F80">
+        <v>-0.0005562389479001865</v>
+      </c>
+      <c r="G80">
+        <v>0.01911590016311148</v>
+      </c>
+      <c r="H80">
+        <v>0.03580713757576933</v>
+      </c>
+      <c r="I80">
+        <v>0.1316791020246392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1346585900655784</v>
+        <v>0.1310349466130464</v>
       </c>
       <c r="C81">
-        <v>0.06017991236414918</v>
+        <v>-0.01223283172493701</v>
       </c>
       <c r="D81">
-        <v>-0.01909896357182621</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0467476936031669</v>
+      </c>
+      <c r="E81">
+        <v>0.00278534900597676</v>
+      </c>
+      <c r="F81">
+        <v>-0.01845794272571308</v>
+      </c>
+      <c r="G81">
+        <v>0.001155273838449277</v>
+      </c>
+      <c r="H81">
+        <v>0.1630324805349909</v>
+      </c>
+      <c r="I81">
+        <v>-0.02383496440913663</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1302375168016544</v>
+        <v>0.1300864353079947</v>
       </c>
       <c r="C82">
-        <v>0.06173273542022208</v>
+        <v>-0.008959677741316391</v>
       </c>
       <c r="D82">
-        <v>-0.01343584088529415</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.05264599193747514</v>
+      </c>
+      <c r="E82">
+        <v>-0.0118140851778855</v>
+      </c>
+      <c r="F82">
+        <v>-0.03275784810787417</v>
+      </c>
+      <c r="G82">
+        <v>0.006308902984227307</v>
+      </c>
+      <c r="H82">
+        <v>0.2321808425957122</v>
+      </c>
+      <c r="I82">
+        <v>-0.1196670734424243</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.06362649513133407</v>
+        <v>0.07937877677563437</v>
       </c>
       <c r="C83">
-        <v>-0.05415789504077793</v>
+        <v>-0.03972660020544769</v>
       </c>
       <c r="D83">
-        <v>-0.001329985356478245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0470821209803267</v>
+      </c>
+      <c r="E83">
+        <v>0.006477393132231449</v>
+      </c>
+      <c r="F83">
+        <v>-0.04170630886849142</v>
+      </c>
+      <c r="G83">
+        <v>0.07421616409202092</v>
+      </c>
+      <c r="H83">
+        <v>-0.004546697677804809</v>
+      </c>
+      <c r="I83">
+        <v>0.1085817512732416</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.03574134778888516</v>
+        <v>0.03383710695067207</v>
       </c>
       <c r="C84">
-        <v>0.02944063377595192</v>
+        <v>-0.03077960212460786</v>
       </c>
       <c r="D84">
-        <v>-0.03578957900056938</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03583130812982715</v>
+      </c>
+      <c r="E84">
+        <v>0.03515745731569285</v>
+      </c>
+      <c r="F84">
+        <v>0.03616329348752364</v>
+      </c>
+      <c r="G84">
+        <v>0.04163330618744363</v>
+      </c>
+      <c r="H84">
+        <v>0.03264026379788672</v>
+      </c>
+      <c r="I84">
+        <v>0.09829000082069687</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1171975934062335</v>
+        <v>0.1202723133118758</v>
       </c>
       <c r="C85">
-        <v>0.02611916994068696</v>
+        <v>-0.03043859967740975</v>
       </c>
       <c r="D85">
-        <v>-0.03974415729363791</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03002877782980628</v>
+      </c>
+      <c r="E85">
+        <v>-0.007835783967147604</v>
+      </c>
+      <c r="F85">
+        <v>-0.04286006927589188</v>
+      </c>
+      <c r="G85">
+        <v>-0.0074116113118043</v>
+      </c>
+      <c r="H85">
+        <v>0.1596976504705617</v>
+      </c>
+      <c r="I85">
+        <v>-0.07071782132188999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.05770472505392019</v>
+        <v>0.05421507067948615</v>
       </c>
       <c r="C86">
-        <v>0.01685006187632963</v>
+        <v>-0.0320410675301408</v>
       </c>
       <c r="D86">
-        <v>-0.06916183441588117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02232449976888604</v>
+      </c>
+      <c r="E86">
+        <v>0.02250767717877543</v>
+      </c>
+      <c r="F86">
+        <v>-0.02056621875265549</v>
+      </c>
+      <c r="G86">
+        <v>0.01921639512027851</v>
+      </c>
+      <c r="H86">
+        <v>-0.04603306101773435</v>
+      </c>
+      <c r="I86">
+        <v>-0.01108955953864194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.1256714188662474</v>
+        <v>0.1267580190013271</v>
       </c>
       <c r="C87">
-        <v>0.05786721348642446</v>
+        <v>-0.05570871777859625</v>
       </c>
       <c r="D87">
-        <v>-0.09397375277148856</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06582879169314243</v>
+      </c>
+      <c r="E87">
+        <v>0.051297359083222</v>
+      </c>
+      <c r="F87">
+        <v>-0.03393537018569114</v>
+      </c>
+      <c r="G87">
+        <v>-0.1601579385585808</v>
+      </c>
+      <c r="H87">
+        <v>-0.08956446286317961</v>
+      </c>
+      <c r="I87">
+        <v>0.0009279461481880321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05889152434692106</v>
+        <v>0.06484253267094497</v>
       </c>
       <c r="C88">
-        <v>0.02736472391039365</v>
+        <v>-0.02740605749016294</v>
       </c>
       <c r="D88">
-        <v>-0.02836703579700829</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03918095709494337</v>
+      </c>
+      <c r="E88">
+        <v>-0.001568590748660071</v>
+      </c>
+      <c r="F88">
+        <v>-0.02328965157165536</v>
+      </c>
+      <c r="G88">
+        <v>-0.007207599133359993</v>
+      </c>
+      <c r="H88">
+        <v>0.03929049705542206</v>
+      </c>
+      <c r="I88">
+        <v>0.03359097645360621</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.07539814645640747</v>
+        <v>0.1198181303974953</v>
       </c>
       <c r="C89">
-        <v>0.09236134476305535</v>
+        <v>0.3698790793568072</v>
       </c>
       <c r="D89">
-        <v>0.3153641926358052</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.07779901489992765</v>
+      </c>
+      <c r="E89">
+        <v>0.03142836454014314</v>
+      </c>
+      <c r="F89">
+        <v>-0.08864404371637817</v>
+      </c>
+      <c r="G89">
+        <v>0.01937121232415238</v>
+      </c>
+      <c r="H89">
+        <v>0.01955767167654229</v>
+      </c>
+      <c r="I89">
+        <v>0.07912039919107966</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.06693141085949823</v>
+        <v>0.08945556212272103</v>
       </c>
       <c r="C90">
-        <v>0.05570967154375338</v>
+        <v>0.2753507008762464</v>
       </c>
       <c r="D90">
-        <v>0.2807975080506195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.08237720109647281</v>
+      </c>
+      <c r="E90">
+        <v>0.01802596616082127</v>
+      </c>
+      <c r="F90">
+        <v>-0.03458314387946098</v>
+      </c>
+      <c r="G90">
+        <v>-0.002383847508449701</v>
+      </c>
+      <c r="H90">
+        <v>-0.007312136944186398</v>
+      </c>
+      <c r="I90">
+        <v>0.0909294108038616</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.0983601634710578</v>
+        <v>0.09314412267605912</v>
       </c>
       <c r="C91">
-        <v>0.046513554114426</v>
+        <v>-0.02015591449313711</v>
       </c>
       <c r="D91">
-        <v>-0.01585868943440564</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03597563913349469</v>
+      </c>
+      <c r="E91">
+        <v>0.001226136649134076</v>
+      </c>
+      <c r="F91">
+        <v>-0.003596922451337952</v>
+      </c>
+      <c r="G91">
+        <v>0.01681361075190861</v>
+      </c>
+      <c r="H91">
+        <v>0.08194367928282746</v>
+      </c>
+      <c r="I91">
+        <v>-0.0463704015780602</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.06252551470275275</v>
+        <v>0.09114988587746552</v>
       </c>
       <c r="C92">
-        <v>0.07732798792113023</v>
+        <v>0.3261235035154207</v>
       </c>
       <c r="D92">
-        <v>0.3195531129234558</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.08355478456899859</v>
+      </c>
+      <c r="E92">
+        <v>0.02938731757132875</v>
+      </c>
+      <c r="F92">
+        <v>-0.04477560797839437</v>
+      </c>
+      <c r="G92">
+        <v>0.0001829114378236741</v>
+      </c>
+      <c r="H92">
+        <v>0.03126168163309411</v>
+      </c>
+      <c r="I92">
+        <v>0.02204386763576316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.05798077894901808</v>
+        <v>0.08813330537921686</v>
       </c>
       <c r="C93">
-        <v>0.0706828729879876</v>
+        <v>0.308202960790788</v>
       </c>
       <c r="D93">
-        <v>0.3032523099418247</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.07562375806341584</v>
+      </c>
+      <c r="E93">
+        <v>0.001942404879179347</v>
+      </c>
+      <c r="F93">
+        <v>-0.02622943473481935</v>
+      </c>
+      <c r="G93">
+        <v>-0.00879458308055662</v>
+      </c>
+      <c r="H93">
+        <v>0.002742884282289788</v>
+      </c>
+      <c r="I93">
+        <v>0.01447321236733186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1277503582586064</v>
+        <v>0.1234523118266427</v>
       </c>
       <c r="C94">
-        <v>0.02681214231177308</v>
+        <v>-0.04230818873283319</v>
       </c>
       <c r="D94">
-        <v>-0.05618891869340166</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02761770919787431</v>
+      </c>
+      <c r="E94">
+        <v>-0.001129897973571708</v>
+      </c>
+      <c r="F94">
+        <v>-0.0135798779090964</v>
+      </c>
+      <c r="G94">
+        <v>0.05936920126440648</v>
+      </c>
+      <c r="H94">
+        <v>0.10609173686865</v>
+      </c>
+      <c r="I94">
+        <v>-0.05471104997635654</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1229421688613478</v>
+        <v>0.1328371356572429</v>
       </c>
       <c r="C95">
-        <v>0.01131935118605912</v>
+        <v>-0.05796038926690978</v>
       </c>
       <c r="D95">
-        <v>-0.0756131321215226</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.02533342326495562</v>
+      </c>
+      <c r="E95">
+        <v>0.01910206645887901</v>
+      </c>
+      <c r="F95">
+        <v>-0.04713278560595927</v>
+      </c>
+      <c r="G95">
+        <v>-0.04866066190915113</v>
+      </c>
+      <c r="H95">
+        <v>-0.1278131366825577</v>
+      </c>
+      <c r="I95">
+        <v>0.05212210155333999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>-0.2347677199451813</v>
+        <v>0.1914220326084776</v>
       </c>
       <c r="C97">
-        <v>0.06000159919210506</v>
+        <v>0.03432062475984708</v>
       </c>
       <c r="D97">
-        <v>0.09670441819309668</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.04629758171793982</v>
+      </c>
+      <c r="E97">
+        <v>0.1370122965129769</v>
+      </c>
+      <c r="F97">
+        <v>0.9259924211963209</v>
+      </c>
+      <c r="G97">
+        <v>-0.05739567541155205</v>
+      </c>
+      <c r="H97">
+        <v>-0.005538188699571131</v>
+      </c>
+      <c r="I97">
+        <v>0.09184077198844492</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2572201862613469</v>
+        <v>0.2831188248550176</v>
       </c>
       <c r="C98">
-        <v>0.07109436220078583</v>
+        <v>-0.04168937632458341</v>
       </c>
       <c r="D98">
-        <v>-0.03372596554710028</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06460438496215042</v>
+      </c>
+      <c r="E98">
+        <v>-0.2613468096259325</v>
+      </c>
+      <c r="F98">
+        <v>0.03521355913975099</v>
+      </c>
+      <c r="G98">
+        <v>0.2639876289382416</v>
+      </c>
+      <c r="H98">
+        <v>-0.2146066333521829</v>
+      </c>
+      <c r="I98">
+        <v>-0.2190996713137722</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>-0.3460710544220055</v>
+        <v>0.2264272856401342</v>
       </c>
       <c r="C99">
-        <v>-0.908162645941895</v>
+        <v>-0.3113986486899493</v>
       </c>
       <c r="D99">
-        <v>0.1312036226085675</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.8951738192992958</v>
+      </c>
+      <c r="E99">
+        <v>-0.03681735303095628</v>
+      </c>
+      <c r="F99">
+        <v>-0.07684011339816084</v>
+      </c>
+      <c r="G99">
+        <v>0.02106238356054406</v>
+      </c>
+      <c r="H99">
+        <v>0.1031093401715122</v>
+      </c>
+      <c r="I99">
+        <v>-0.01176447967532574</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.05005568124060741</v>
+        <v>0.05259463809384591</v>
       </c>
       <c r="C101">
-        <v>0.04137623587232552</v>
+        <v>0.00252849229330018</v>
       </c>
       <c r="D101">
-        <v>-0.00581545084150537</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03694128570939786</v>
+      </c>
+      <c r="E101">
+        <v>0.03960648544680614</v>
+      </c>
+      <c r="F101">
+        <v>-0.03658404775921257</v>
+      </c>
+      <c r="G101">
+        <v>-0.005373399157329241</v>
+      </c>
+      <c r="H101">
+        <v>0.08793883828754752</v>
+      </c>
+      <c r="I101">
+        <v>0.05011917344557622</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
